--- a/formats/excel/SSR/2021/Formats RHA 21.xlsx
+++ b/formats/excel/SSR/2021/Formats RHA 21.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10404"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10919935\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40477464-3D0F-744C-9F94-FA918E9FA4C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -283,9 +282,6 @@
     <t>Journées hors week-end</t>
   </si>
   <si>
-    <t>JOURNESS_HWE</t>
-  </si>
-  <si>
     <t>Journées week-end</t>
   </si>
   <si>
@@ -434,13 +430,16 @@
   </si>
   <si>
     <t>ANNEESEMAINE</t>
+  </si>
+  <si>
+    <t>JOURNEES_HWE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -501,7 +500,7 @@
   <a:themeElements>
     <a:clrScheme name="Bureau">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -753,23 +752,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
+      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="45.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="45.875" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -792,7 +791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -816,7 +815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -840,7 +839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -864,7 +863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -888,7 +887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -912,7 +911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -936,7 +935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -960,7 +959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -984,7 +983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1008,7 +1007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1032,7 +1031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1056,7 +1055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1080,7 +1079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1104,7 +1103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1128,7 +1127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1152,7 +1151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1200,7 +1199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1248,7 +1247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1296,7 +1295,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="B23" t="s">
         <v>50</v>
       </c>
@@ -1317,7 +1316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1365,7 +1364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1389,9 +1388,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
@@ -1413,12 +1412,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -1438,7 +1437,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1462,7 +1461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1486,12 +1485,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" t="s">
         <v>129</v>
-      </c>
-      <c r="B31" t="s">
-        <v>130</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -1510,7 +1509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -1534,9 +1533,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="B33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -1555,7 +1554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -1579,12 +1578,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
         <v>132</v>
-      </c>
-      <c r="B35" t="s">
-        <v>133</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1604,7 +1603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -1652,7 +1651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -1676,7 +1675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -1700,7 +1699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -1724,7 +1723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -1748,12 +1747,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
         <v>134</v>
-      </c>
-      <c r="B42" t="s">
-        <v>135</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -1772,12 +1771,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" t="s">
         <v>136</v>
-      </c>
-      <c r="B43" t="s">
-        <v>137</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1796,7 +1795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -1820,7 +1819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -1844,7 +1843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -1868,7 +1867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -1892,12 +1891,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1916,12 +1915,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s">
         <v>88</v>
-      </c>
-      <c r="B49" t="s">
-        <v>89</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -1940,12 +1939,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
         <v>90</v>
-      </c>
-      <c r="B50" t="s">
-        <v>91</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1964,12 +1963,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" t="s">
         <v>92</v>
-      </c>
-      <c r="B51" t="s">
-        <v>93</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1988,12 +1987,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
         <v>94</v>
-      </c>
-      <c r="B52" t="s">
-        <v>95</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -2012,12 +2011,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
         <v>96</v>
-      </c>
-      <c r="B53" t="s">
-        <v>97</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -2036,12 +2035,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" t="s">
         <v>98</v>
-      </c>
-      <c r="B54" t="s">
-        <v>99</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2060,12 +2059,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" t="s">
         <v>100</v>
-      </c>
-      <c r="B55" t="s">
-        <v>101</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2084,12 +2083,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" t="s">
         <v>102</v>
-      </c>
-      <c r="B56" t="s">
-        <v>103</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2108,12 +2107,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" t="s">
         <v>104</v>
-      </c>
-      <c r="B57" t="s">
-        <v>105</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2132,12 +2131,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" t="s">
         <v>106</v>
-      </c>
-      <c r="B58" t="s">
-        <v>107</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2156,12 +2155,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
         <v>108</v>
-      </c>
-      <c r="B59" t="s">
-        <v>109</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2180,12 +2179,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" t="s">
         <v>110</v>
-      </c>
-      <c r="B60" t="s">
-        <v>111</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -2204,12 +2203,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" t="s">
         <v>112</v>
-      </c>
-      <c r="B61" t="s">
-        <v>113</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -2228,12 +2227,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" t="s">
         <v>114</v>
-      </c>
-      <c r="B62" t="s">
-        <v>115</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -2252,12 +2251,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" t="s">
         <v>116</v>
-      </c>
-      <c r="B63" t="s">
-        <v>117</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2276,9 +2275,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="B64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2297,12 +2296,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" t="s">
         <v>119</v>
-      </c>
-      <c r="B65" t="s">
-        <v>120</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -2321,12 +2320,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" t="s">
         <v>121</v>
-      </c>
-      <c r="B66" t="s">
-        <v>122</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -2345,12 +2344,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" t="s">
         <v>123</v>
-      </c>
-      <c r="B67" t="s">
-        <v>124</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -2369,9 +2368,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="B68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D68">
         <v>193</v>
